--- a/calcul rezolutii.xlsx
+++ b/calcul rezolutii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practica 3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,16 +26,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>h</t>
+    <t>tg(phi)</t>
   </si>
   <si>
-    <t>x</t>
+    <t>x(latura GE)</t>
   </si>
   <si>
-    <t>phi</t>
+    <t>phi(unghiul P)</t>
   </si>
   <si>
-    <t>tg(phi)</t>
+    <t>h(FE)</t>
   </si>
 </sst>
 </file>
@@ -355,21 +355,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
